--- a/2020_Weekend1_Problems/PlayerRoles.xlsx
+++ b/2020_Weekend1_Problems/PlayerRoles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GZN\HIT\个人文件\2020年美国大学生数学建模竞赛\2020MCM-ICM\2020_Weekend1_Problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395AB587-2D06-4B5F-A15F-0FF6967C08BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39235925-0951-4F16-A50E-0DFBF6472D17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2A8D4935-807F-47D6-96DA-3F550E119C14}"/>
+    <workbookView xWindow="-15480" yWindow="8175" windowWidth="15600" windowHeight="11160" xr2:uid="{2A8D4935-807F-47D6-96DA-3F550E119C14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
   <si>
     <t>G1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,6 +223,58 @@
   </si>
   <si>
     <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line-up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F4DC08B-C195-4C26-9905-993070288C7C}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -602,47 +654,83 @@
     <col min="2" max="2" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -650,7 +738,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -658,7 +746,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -666,7 +754,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -674,7 +762,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -682,7 +770,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -690,7 +778,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -698,7 +786,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -706,7 +794,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -714,7 +802,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -722,7 +810,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -807,7 +895,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
